--- a/Mars Onboarding Task TestPan.xlsx
+++ b/Mars Onboarding Task TestPan.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23546d0de25dfd14/Documents/Garry/OnboardingProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23546d0de25dfd14/Documents/Mars/OnBoarding Task/onboarding.specflow-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B6FA32-613E-426F-A637-20E37E44F1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{09B6FA32-613E-426F-A637-20E37E44F1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{845B41C0-9435-43F4-BB03-DA88139E7F1A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Conditions-Registration" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Conditions-Profile" sheetId="6" r:id="rId2"/>
-    <sheet name="Test Cases-Profile" sheetId="7" r:id="rId3"/>
+    <sheet name="Test Conditions-Profile" sheetId="6" r:id="rId1"/>
+    <sheet name="Test Cases-Profile" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="302">
   <si>
     <t>ID</t>
   </si>
@@ -50,45 +49,6 @@
   </si>
   <si>
     <t>TC_001</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Validate "Registration" functionality</t>
-  </si>
-  <si>
-    <t>Check if the user is able to Click on "Join" button on login page</t>
-  </si>
-  <si>
-    <t>Check if the user is able to enter "First name" with out any letter</t>
-  </si>
-  <si>
-    <t>Check if the user is able to enter "Last name" with out any letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the user can enter invalid "Email address" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the user can enter not matching password in "Confirm Password" </t>
-  </si>
-  <si>
-    <t>Check if the user can navigate to "terms and conditions" page</t>
-  </si>
-  <si>
-    <t>Check if the user is able to "Join" with out mandatory fields</t>
-  </si>
-  <si>
-    <t>Check if the user can enter "Password" less than 6 characters</t>
-  </si>
-  <si>
-    <t>Check if the user can navigate to "Login" form</t>
-  </si>
-  <si>
-    <t>Check if the user is able to register an existing user</t>
-  </si>
-  <si>
-    <t>Check if the user is able to register a new user successfully</t>
   </si>
   <si>
     <t>TC_002</t>
@@ -1356,7 +1316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1380,25 +1340,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1407,10 +1356,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1420,6 +1382,15 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -1433,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1449,13 +1420,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1471,56 +1442,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1801,145 +1766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="37.6328125" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" customWidth="1"/>
-    <col min="4" max="4" width="63.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="A2:A12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEB46E8-E179-4063-8BBA-0D45A0FEA217}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1963,42 +1794,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>126</v>
+      <c r="B2" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -2008,25 +1839,25 @@
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>19</v>
+      <c r="A7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2036,33 +1867,33 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>174</v>
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2072,33 +1903,33 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>175</v>
+      <c r="A14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2108,33 +1939,33 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>176</v>
+      <c r="A18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2150,73 +1981,73 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>178</v>
+      <c r="A23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2226,65 +2057,65 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>308</v>
+      <c r="A32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>295</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="32"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="32"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="32"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2294,65 +2125,65 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>311</v>
+      <c r="A40" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="3" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="32"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="32"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2362,57 +2193,57 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>314</v>
+      <c r="A48" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="32"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="32"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="32"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="32"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="32"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -2428,15 +2259,9 @@
       <c r="D56" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="A32:A38"/>
+  <mergeCells count="26">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
     <mergeCell ref="A48:A53"/>
     <mergeCell ref="C48:C53"/>
     <mergeCell ref="B48:B53"/>
@@ -2453,18 +2278,26 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="A32:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFE970-8A42-452A-BFF2-0389814BBBA4}">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257:B261"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2477,42 +2310,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>71</v>
+      <c r="A2" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -2520,13 +2353,13 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>39</v>
+      <c r="A3" s="24"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -2534,16 +2367,16 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>304</v>
+      <c r="A4" s="24"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -2552,135 +2385,139 @@
     <row r="5" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>71</v>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>39</v>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>214</v>
+        <v>199</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>139</v>
+        <v>200</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="14"/>
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>291</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>304</v>
-      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>223</v>
-      </c>
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>71</v>
+        <v>125</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2688,41 +2525,41 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>39</v>
+        <v>122</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>215</v>
+        <v>203</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>147</v>
+        <v>204</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2730,57 +2567,57 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="14"/>
+        <v>132</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>291</v>
+      </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>304</v>
-      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>222</v>
-      </c>
+    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>71</v>
+        <v>125</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -2788,79 +2625,75 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>291</v>
+      </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>304</v>
+        <v>206</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>304</v>
+        <v>208</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>304</v>
+        <v>132</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>304</v>
-      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2869,164 +2702,164 @@
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>79</v>
-      </c>
+    <row r="28" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="6" t="s">
-        <v>72</v>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>304</v>
+        <v>61</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="18" t="s">
-        <v>73</v>
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>303</v>
+        <v>63</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>303</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>80</v>
-      </c>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="35"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>304</v>
+        <v>61</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="35"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>303</v>
+        <v>65</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>303</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3052,2239 +2885,2243 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>81</v>
-      </c>
+    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
-      <c r="B42" s="34"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="6" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>304</v>
+        <v>138</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
-      <c r="B43" s="34"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>304</v>
+        <v>139</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="35"/>
-      <c r="B44" s="34"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>304</v>
+        <v>140</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>82</v>
-      </c>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="35"/>
-      <c r="B48" s="34"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="6" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>304</v>
+        <v>138</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="35"/>
-      <c r="B49" s="34"/>
+    <row r="49" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>304</v>
+        <v>139</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="35"/>
-      <c r="B50" s="34"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>304</v>
+        <v>143</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="35"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="A52" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>83</v>
-      </c>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="35"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="6" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>304</v>
+        <v>138</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="35"/>
-      <c r="B55" s="34"/>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>304</v>
+        <v>145</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="35"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="A57" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>84</v>
-      </c>
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="35"/>
-      <c r="B59" s="34"/>
+    <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="6" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>304</v>
+        <v>156</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="35"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>304</v>
+        <v>157</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="35"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="A62" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>85</v>
-      </c>
+      <c r="A63" s="23"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="35"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="6" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>304</v>
+        <v>156</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="35"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>304</v>
+        <v>158</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="35"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="A67" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>86</v>
-      </c>
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="35"/>
-      <c r="B69" s="34"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="6" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>304</v>
+        <v>154</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="35"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>304</v>
+        <v>155</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="35"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="A72" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>87</v>
-      </c>
+      <c r="A73" s="23"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="35"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="6" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>304</v>
+        <v>148</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="35"/>
-      <c r="B75" s="34"/>
+    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>304</v>
+        <v>149</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="35"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="A77" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="A78" s="23"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="35"/>
-      <c r="B79" s="34"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="6" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>304</v>
+        <v>150</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="35"/>
-      <c r="B80" s="34"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>304</v>
+        <v>152</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="35"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="19"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="21"/>
+      <c r="A82" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>89</v>
-      </c>
+      <c r="A83" s="23"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="35"/>
-      <c r="B84" s="34"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="6" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>304</v>
+        <v>153</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="35"/>
-      <c r="B85" s="34"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>304</v>
+        <v>151</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="35"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="C86" s="6" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>304</v>
+        <v>58</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>90</v>
-      </c>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>304</v>
+        <v>170</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="6" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>304</v>
+        <v>186</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="32"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>304</v>
+        <v>171</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="32"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>304</v>
+        <v>172</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="32"/>
-      <c r="B92" s="32"/>
+    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>304</v>
+        <v>173</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="32"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="A94" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>91</v>
-      </c>
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="32"/>
-      <c r="B96" s="32"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>304</v>
+        <v>170</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="32"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="6" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>304</v>
+        <v>186</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="32"/>
-      <c r="B98" s="32"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>304</v>
+        <v>178</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="32"/>
-      <c r="B99" s="32"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>304</v>
+        <v>172</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="32"/>
-      <c r="B100" s="32"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>304</v>
+        <v>179</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="32"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="A102" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B103" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="32"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>304</v>
+        <v>170</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="32"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="6" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E105" s="21" t="s">
-        <v>304</v>
+        <v>181</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="32"/>
-      <c r="B106" s="32"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>304</v>
+        <v>182</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="3"/>
+      <c r="A108" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="32"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>304</v>
+        <v>170</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="32"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="6" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>304</v>
+        <v>186</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="32"/>
-      <c r="B112" s="32"/>
+    <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>304</v>
+        <v>196</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="32"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="3"/>
+      <c r="A114" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="32" t="s">
-        <v>94</v>
-      </c>
+      <c r="A115" s="22"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="32"/>
-      <c r="B116" s="32"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>304</v>
+        <v>190</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="32"/>
-      <c r="B117" s="32"/>
+      <c r="A117" s="22"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>304</v>
+        <v>192</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="32"/>
-      <c r="B118" s="32"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>304</v>
+        <v>191</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
+    <row r="119" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>304</v>
+        <v>193</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="32"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="3"/>
+      <c r="A121" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" s="32" t="s">
-        <v>95</v>
-      </c>
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="32"/>
-      <c r="B123" s="32"/>
+      <c r="A123" s="22"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>304</v>
+        <v>190</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="32"/>
-      <c r="B124" s="32"/>
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>304</v>
+        <v>195</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="32"/>
-      <c r="B125" s="32"/>
+    <row r="125" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>304</v>
+        <v>196</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="19"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="21"/>
+      <c r="A127" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="32" t="s">
-        <v>96</v>
-      </c>
+      <c r="A128" s="22"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>304</v>
+        <v>26</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="32"/>
-      <c r="B129" s="32"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E129" s="21" t="s">
-        <v>304</v>
+        <v>190</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="32"/>
-      <c r="B130" s="32"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>304</v>
+        <v>212</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="32"/>
-      <c r="B131" s="32"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>304</v>
+        <v>213</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="32"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E132" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="3"/>
+      <c r="A133" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E133" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B134" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>304</v>
+        <v>216</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="32"/>
-      <c r="B135" s="32"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>304</v>
+        <v>217</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="32"/>
-      <c r="B136" s="32"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="6" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E136" s="21" t="s">
-        <v>304</v>
+        <v>218</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="32"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E137" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
+      <c r="A138" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>306</v>
-      </c>
+      <c r="A139" s="22"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E139" s="21" t="s">
-        <v>304</v>
+        <v>221</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="6" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>304</v>
+        <v>253</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="32"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="6" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E141" s="21" t="s">
-        <v>304</v>
+        <v>222</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="32"/>
-      <c r="B142" s="32"/>
+    <row r="142" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="6" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>304</v>
+        <v>224</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="32"/>
-      <c r="B143" s="32"/>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E143" s="21" t="s">
-        <v>304</v>
+        <v>225</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="32"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E144" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="3"/>
+      <c r="A145" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E146" s="21" t="s">
-        <v>304</v>
+        <v>221</v>
+      </c>
+      <c r="E146" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="6" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>304</v>
+        <v>223</v>
+      </c>
+      <c r="E147" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="32"/>
-      <c r="B148" s="32"/>
+      <c r="A148" s="22"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="6" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>304</v>
+        <v>222</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" s="32"/>
-      <c r="B149" s="32"/>
+    <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A149" s="22"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="6" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>304</v>
+        <v>224</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
     </row>
     <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="32"/>
-      <c r="B150" s="32"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="6" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>304</v>
+        <v>228</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="32"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="3"/>
+      <c r="A152" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B153" s="32" t="s">
-        <v>99</v>
-      </c>
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E153" s="21" t="s">
-        <v>304</v>
+        <v>233</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="32"/>
-      <c r="B154" s="32"/>
+      <c r="A154" s="22"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>304</v>
+        <v>234</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="32"/>
-      <c r="B155" s="32"/>
+      <c r="A155" s="22"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="6" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>304</v>
+        <v>212</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="32"/>
-      <c r="B156" s="32"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>304</v>
+        <v>235</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="32"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E157" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="3"/>
+      <c r="A158" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="B159" s="32" t="s">
-        <v>100</v>
-      </c>
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E159" s="21" t="s">
-        <v>304</v>
+        <v>233</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="32"/>
-      <c r="B160" s="32"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="6" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>304</v>
+        <v>234</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="32"/>
-      <c r="B161" s="32"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="6" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E161" s="21" t="s">
-        <v>304</v>
+        <v>222</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" s="32"/>
-      <c r="B162" s="32"/>
+    <row r="162" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="6" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E162" s="21" t="s">
-        <v>304</v>
+        <v>237</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="32"/>
-      <c r="B163" s="32"/>
-      <c r="C163" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E163" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="3"/>
+      <c r="A164" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B164" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B165" s="32" t="s">
-        <v>101</v>
-      </c>
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>304</v>
+        <v>241</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="32"/>
-      <c r="B166" s="32"/>
+      <c r="A166" s="22"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D166" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D166" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>304</v>
+      <c r="E166" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="32"/>
-      <c r="B167" s="32"/>
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E167" s="21" t="s">
-        <v>304</v>
+        <v>243</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="6" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E168" s="21" t="s">
-        <v>304</v>
+        <v>244</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="32"/>
-      <c r="B169" s="32"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="6" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E169" s="21" t="s">
-        <v>304</v>
+        <v>267</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="32"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E170" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="3"/>
+      <c r="A171" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B172" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="A172" s="22"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E172" s="21" t="s">
-        <v>304</v>
+      <c r="E172" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="32"/>
-      <c r="B173" s="32"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D173" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D173" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E173" s="21" t="s">
-        <v>304</v>
+      <c r="E173" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="32"/>
-      <c r="B174" s="32"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E174" s="21" t="s">
-        <v>304</v>
+        <v>212</v>
+      </c>
+      <c r="E174" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
+    <row r="175" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="6" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E175" s="21" t="s">
-        <v>304</v>
+        <v>246</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="32"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E176" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="3"/>
+      <c r="A177" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E177" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="B178" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="A178" s="22"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E178" s="21" t="s">
-        <v>304</v>
+        <v>247</v>
+      </c>
+      <c r="E178" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="32"/>
-      <c r="B179" s="32"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="6" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E179" s="21" t="s">
-        <v>304</v>
+        <v>248</v>
+      </c>
+      <c r="E179" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="32"/>
-      <c r="B180" s="32"/>
+    <row r="180" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="22"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="6" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E180" s="21" t="s">
-        <v>304</v>
+        <v>270</v>
+      </c>
+      <c r="E180" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="32"/>
-      <c r="B181" s="32"/>
-      <c r="C181" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E181" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="7"/>
+      <c r="A182" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C182" s="3"/>
       <c r="D182" s="7"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -5292,323 +5129,319 @@
       <c r="H182" s="3"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="32" t="s">
+      <c r="A183" s="22"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B183" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="3"/>
+      <c r="D183" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="32"/>
-      <c r="B184" s="32"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E184" s="21" t="s">
-        <v>304</v>
+        <v>221</v>
+      </c>
+      <c r="E184" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="32"/>
-      <c r="B185" s="32"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="6" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E185" s="21" t="s">
-        <v>304</v>
+        <v>253</v>
+      </c>
+      <c r="E185" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="32"/>
-      <c r="B186" s="32"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="6" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E186" s="21" t="s">
-        <v>304</v>
+        <v>254</v>
+      </c>
+      <c r="E186" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="32"/>
-      <c r="B187" s="32"/>
+    <row r="187" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="22"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="6" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E187" s="21" t="s">
-        <v>304</v>
+        <v>255</v>
+      </c>
+      <c r="E187" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="32"/>
-      <c r="B188" s="32"/>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188" s="22"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="6" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E188" s="21" t="s">
-        <v>304</v>
+        <v>256</v>
+      </c>
+      <c r="E188" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="32"/>
-      <c r="B189" s="32"/>
-      <c r="C189" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="189" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="6"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="3"/>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B190" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E190" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B191" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="A191" s="22"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="6" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E191" s="21" t="s">
-        <v>304</v>
+        <v>221</v>
+      </c>
+      <c r="E191" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="32"/>
-      <c r="B192" s="32"/>
+      <c r="A192" s="22"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="6" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E192" s="21" t="s">
-        <v>304</v>
+        <v>253</v>
+      </c>
+      <c r="E192" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="32"/>
-      <c r="B193" s="32"/>
+      <c r="A193" s="22"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="6" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E193" s="21" t="s">
-        <v>304</v>
+        <v>254</v>
+      </c>
+      <c r="E193" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="32"/>
-      <c r="B194" s="32"/>
+    <row r="194" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A194" s="22"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="6" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E194" s="21" t="s">
-        <v>304</v>
+        <v>255</v>
+      </c>
+      <c r="E194" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="32"/>
-      <c r="B195" s="32"/>
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="6" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E195" s="21" t="s">
-        <v>304</v>
+        <v>258</v>
+      </c>
+      <c r="E195" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A196" s="32"/>
-      <c r="B196" s="32"/>
-      <c r="C196" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E196" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="3"/>
+      <c r="A197" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B197" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E197" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B198" s="32" t="s">
-        <v>106</v>
-      </c>
+      <c r="A198" s="22"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E198" s="21" t="s">
-        <v>304</v>
+        <v>233</v>
+      </c>
+      <c r="E198" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="32"/>
-      <c r="B199" s="32"/>
+      <c r="A199" s="22"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="6" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E199" s="21" t="s">
-        <v>304</v>
+        <v>234</v>
+      </c>
+      <c r="E199" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="32"/>
-      <c r="B200" s="32"/>
+      <c r="A200" s="22"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="6" t="s">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E200" s="21" t="s">
-        <v>304</v>
+        <v>212</v>
+      </c>
+      <c r="E200" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="32"/>
-      <c r="B201" s="32"/>
+      <c r="A201" s="22"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E201" s="21" t="s">
-        <v>304</v>
+        <v>260</v>
+      </c>
+      <c r="E201" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="32"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E202" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A202" s="22"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="32"/>
-      <c r="B203" s="32"/>
-      <c r="C203" s="6"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -5616,307 +5449,307 @@
       <c r="H203" s="3"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="3"/>
+      <c r="A204" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B204" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E204" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B205" s="32" t="s">
-        <v>107</v>
-      </c>
+      <c r="A205" s="22"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E205" s="21" t="s">
-        <v>304</v>
+        <v>233</v>
+      </c>
+      <c r="E205" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="32"/>
-      <c r="B206" s="32"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="6" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E206" s="21" t="s">
-        <v>304</v>
+        <v>234</v>
+      </c>
+      <c r="E206" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="32"/>
-      <c r="B207" s="32"/>
+      <c r="A207" s="22"/>
+      <c r="B207" s="22"/>
       <c r="C207" s="6" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E207" s="21" t="s">
-        <v>304</v>
+        <v>254</v>
+      </c>
+      <c r="E207" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="32"/>
-      <c r="B208" s="32"/>
+    <row r="208" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A208" s="22"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="6" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E208" s="21" t="s">
-        <v>304</v>
+        <v>237</v>
+      </c>
+      <c r="E208" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
     </row>
-    <row r="209" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A209" s="32"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E209" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="3"/>
+      <c r="A210" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E210" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B211" s="32" t="s">
-        <v>108</v>
-      </c>
+      <c r="A211" s="22"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E211" s="21" t="s">
-        <v>304</v>
+        <v>241</v>
+      </c>
+      <c r="E211" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="32"/>
-      <c r="B212" s="32"/>
+      <c r="A212" s="22"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D212" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D212" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E212" s="21" t="s">
-        <v>304</v>
+      <c r="E212" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="32"/>
-      <c r="B213" s="32"/>
+      <c r="A213" s="22"/>
+      <c r="B213" s="22"/>
       <c r="C213" s="6" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E213" s="21" t="s">
-        <v>304</v>
+        <v>264</v>
+      </c>
+      <c r="E213" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214" s="32"/>
-      <c r="B214" s="32"/>
+      <c r="A214" s="22"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E214" s="21" t="s">
-        <v>304</v>
+        <v>265</v>
+      </c>
+      <c r="E214" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="32"/>
-      <c r="B215" s="32"/>
+      <c r="A215" s="22"/>
+      <c r="B215" s="22"/>
       <c r="C215" s="6" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E215" s="21" t="s">
-        <v>304</v>
+        <v>266</v>
+      </c>
+      <c r="E215" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216" s="32"/>
-      <c r="B216" s="32"/>
-      <c r="C216" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E216" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="3"/>
+      <c r="A217" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B217" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E217" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B218" s="32" t="s">
-        <v>109</v>
-      </c>
+      <c r="A218" s="22"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E218" s="21" t="s">
-        <v>304</v>
+      <c r="E218" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="32"/>
-      <c r="B219" s="32"/>
+      <c r="A219" s="22"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D219" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D219" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E219" s="21" t="s">
-        <v>304</v>
+      <c r="E219" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="32"/>
-      <c r="B220" s="32"/>
+      <c r="A220" s="22"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="6" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E220" s="21" t="s">
-        <v>304</v>
+        <v>212</v>
+      </c>
+      <c r="E220" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A221" s="32"/>
-      <c r="B221" s="32"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="22"/>
       <c r="C221" s="6" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E221" s="21" t="s">
-        <v>304</v>
+        <v>268</v>
+      </c>
+      <c r="E221" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222" s="32"/>
-      <c r="B222" s="32"/>
-      <c r="C222" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E222" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A222" s="22"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A223" s="32"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="6"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
@@ -5924,595 +5757,595 @@
       <c r="H223" s="3"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="3"/>
+      <c r="A224" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B224" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E224" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A225" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B225" s="32" t="s">
-        <v>110</v>
-      </c>
+      <c r="A225" s="22"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E225" s="21" t="s">
-        <v>304</v>
+        <v>247</v>
+      </c>
+      <c r="E225" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226" s="32"/>
-      <c r="B226" s="32"/>
+      <c r="A226" s="22"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="6" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E226" s="21" t="s">
-        <v>304</v>
+        <v>248</v>
+      </c>
+      <c r="E226" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A227" s="32"/>
-      <c r="B227" s="32"/>
+      <c r="A227" s="22"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E227" s="21" t="s">
-        <v>304</v>
+        <v>272</v>
+      </c>
+      <c r="E227" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A228" s="32"/>
-      <c r="B228" s="32"/>
-      <c r="C228" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E228" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="19"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="21"/>
+      <c r="A229" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B229" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E229" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B230" s="32" t="s">
-        <v>111</v>
-      </c>
+      <c r="A230" s="22"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E230" s="21" t="s">
-        <v>304</v>
+        <v>247</v>
+      </c>
+      <c r="E230" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A231" s="32"/>
-      <c r="B231" s="32"/>
+    <row r="231" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A231" s="22"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="6" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E231" s="21" t="s">
-        <v>304</v>
+        <v>274</v>
+      </c>
+      <c r="E231" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
     </row>
     <row r="232" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="32"/>
-      <c r="B232" s="32"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="22"/>
       <c r="C232" s="6" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E232" s="21" t="s">
-        <v>304</v>
+        <v>276</v>
+      </c>
+      <c r="E232" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
     </row>
-    <row r="233" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A233" s="32"/>
-      <c r="B233" s="32"/>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A233" s="22"/>
+      <c r="B233" s="22"/>
       <c r="C233" s="6" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E233" s="21" t="s">
-        <v>304</v>
+        <v>278</v>
+      </c>
+      <c r="E233" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A234" s="32"/>
-      <c r="B234" s="32"/>
-      <c r="C234" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E234" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="7"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="19"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="21"/>
+      <c r="A235" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B235" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E235" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A236" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B236" s="32" t="s">
-        <v>112</v>
-      </c>
+      <c r="A236" s="22"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E236" s="21" t="s">
-        <v>304</v>
+        <v>247</v>
+      </c>
+      <c r="E236" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A237" s="32"/>
-      <c r="B237" s="32"/>
+    <row r="237" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A237" s="22"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="6" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E237" s="21" t="s">
-        <v>304</v>
+        <v>274</v>
+      </c>
+      <c r="E237" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
     </row>
-    <row r="238" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A238" s="32"/>
-      <c r="B238" s="32"/>
-      <c r="C238" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E238" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A238" s="22"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="19"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A239" s="32"/>
-      <c r="B239" s="32"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="21"/>
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E239" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
+      <c r="A240" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B240" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="C240" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E240" s="21" t="s">
-        <v>304</v>
+        <v>247</v>
+      </c>
+      <c r="E240" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A241" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B241" s="32" t="s">
-        <v>113</v>
-      </c>
+    <row r="241" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A241" s="22"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="6" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E241" s="21" t="s">
-        <v>304</v>
+        <v>274</v>
+      </c>
+      <c r="E241" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
     </row>
     <row r="242" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A242" s="32"/>
-      <c r="B242" s="32"/>
+      <c r="A242" s="22"/>
+      <c r="B242" s="22"/>
       <c r="C242" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E242" s="21" t="s">
-        <v>304</v>
+        <v>280</v>
+      </c>
+      <c r="E242" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
     </row>
-    <row r="243" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A243" s="32"/>
-      <c r="B243" s="32"/>
-      <c r="C243" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D243" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E243" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="19"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="21"/>
+      <c r="A244" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B244" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E244" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A245" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B245" s="32" t="s">
-        <v>296</v>
-      </c>
+      <c r="A245" s="22"/>
+      <c r="B245" s="22"/>
       <c r="C245" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E245" s="21" t="s">
-        <v>304</v>
+        <v>247</v>
+      </c>
+      <c r="E245" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A246" s="32"/>
-      <c r="B246" s="32"/>
+    <row r="246" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A246" s="22"/>
+      <c r="B246" s="22"/>
       <c r="C246" s="6" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E246" s="21" t="s">
-        <v>304</v>
+        <v>274</v>
+      </c>
+      <c r="E246" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
     </row>
-    <row r="247" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A247" s="32"/>
-      <c r="B247" s="32"/>
+    <row r="247" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A247" s="22"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E247" s="21" t="s">
-        <v>304</v>
+        <v>282</v>
+      </c>
+      <c r="E247" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
     </row>
-    <row r="248" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="32"/>
-      <c r="B248" s="32"/>
+    <row r="248" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="22"/>
+      <c r="B248" s="22"/>
       <c r="C248" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E248" s="22" t="s">
-        <v>303</v>
+        <v>284</v>
+      </c>
+      <c r="E248" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
     </row>
-    <row r="249" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="32"/>
-      <c r="B249" s="32"/>
-      <c r="C249" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E249" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="19"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="21"/>
+      <c r="A250" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E250" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A251" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B251" s="32" t="s">
-        <v>114</v>
-      </c>
+      <c r="A251" s="22"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E251" s="21" t="s">
-        <v>304</v>
+        <v>247</v>
+      </c>
+      <c r="E251" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A252" s="32"/>
-      <c r="B252" s="32"/>
+    <row r="252" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A252" s="22"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="6" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E252" s="21" t="s">
-        <v>304</v>
+        <v>274</v>
+      </c>
+      <c r="E252" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
     </row>
-    <row r="253" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A253" s="32"/>
-      <c r="B253" s="32"/>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A253" s="22"/>
+      <c r="B253" s="22"/>
       <c r="C253" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D253" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D253" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E253" s="21" t="s">
-        <v>304</v>
+      <c r="E253" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A254" s="32"/>
-      <c r="B254" s="32"/>
+      <c r="A254" s="22"/>
+      <c r="B254" s="22"/>
       <c r="C254" s="6" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E254" s="21" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="E254" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A255" s="32"/>
-      <c r="B255" s="32"/>
-      <c r="C255" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D255" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E255" s="21" t="s">
-        <v>304</v>
-      </c>
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="19"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="21"/>
+      <c r="A256" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E256" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A257" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B257" s="32" t="s">
-        <v>301</v>
-      </c>
+      <c r="A257" s="22"/>
+      <c r="B257" s="22"/>
       <c r="C257" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E257" s="21" t="s">
-        <v>304</v>
+        <v>247</v>
+      </c>
+      <c r="E257" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A258" s="32"/>
-      <c r="B258" s="32"/>
+    <row r="258" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A258" s="22"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="6" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E258" s="21" t="s">
-        <v>304</v>
+        <v>274</v>
+      </c>
+      <c r="E258" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A259" s="32"/>
-      <c r="B259" s="32"/>
+    <row r="259" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A259" s="22"/>
+      <c r="B259" s="22"/>
       <c r="C259" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E259" s="21" t="s">
-        <v>304</v>
+        <v>282</v>
+      </c>
+      <c r="E259" s="20" t="s">
+        <v>290</v>
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
     </row>
-    <row r="260" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="32"/>
-      <c r="B260" s="32"/>
+    <row r="260" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A260" s="22"/>
+      <c r="B260" s="22"/>
       <c r="C260" s="6" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E260" s="22" t="s">
-        <v>303</v>
+        <v>284</v>
+      </c>
+      <c r="E260" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A261" s="32"/>
-      <c r="B261" s="32"/>
-      <c r="C261" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D261" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E261" s="21" t="s">
-        <v>304</v>
-      </c>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
@@ -6520,8 +6353,8 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="7"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -6547,96 +6380,94 @@
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="A257:A261"/>
-    <mergeCell ref="B257:B261"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="B230:B234"/>
-    <mergeCell ref="A230:A234"/>
-    <mergeCell ref="B236:B239"/>
-    <mergeCell ref="A236:A239"/>
-    <mergeCell ref="B241:B243"/>
-    <mergeCell ref="A241:A243"/>
-    <mergeCell ref="B245:B249"/>
-    <mergeCell ref="A245:A249"/>
-    <mergeCell ref="B251:B255"/>
-    <mergeCell ref="A251:A255"/>
-    <mergeCell ref="B183:B189"/>
-    <mergeCell ref="A183:A189"/>
-    <mergeCell ref="B191:B196"/>
-    <mergeCell ref="A191:A196"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B205:B209"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="B211:B216"/>
-    <mergeCell ref="A211:A216"/>
-    <mergeCell ref="B218:B223"/>
-    <mergeCell ref="A218:A223"/>
-    <mergeCell ref="B146:B151"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A178:A181"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B139:B144"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
+  <mergeCells count="86">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="B171:B175"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B210:B215"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="B217:B222"/>
+    <mergeCell ref="A217:A222"/>
+    <mergeCell ref="B182:B188"/>
+    <mergeCell ref="A182:A188"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="A256:A260"/>
+    <mergeCell ref="B256:B260"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="B244:B248"/>
+    <mergeCell ref="A244:A248"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="A250:A254"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Mars Onboarding Task TestPan.xlsx
+++ b/Mars Onboarding Task TestPan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23546d0de25dfd14/Documents/Mars/OnBoarding Task/onboarding.specflow-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23546d0de25dfd14/Documents/Mars/OnBoarding Task/Onboarding Task/Mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="27" documentId="8_{09B6FA32-613E-426F-A637-20E37E44F1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{845B41C0-9435-43F4-BB03-DA88139E7F1A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Conditions-Profile" sheetId="6" r:id="rId1"/>
@@ -1448,27 +1448,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1481,11 +1460,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1769,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEB46E8-E179-4063-8BBA-0D45A0FEA217}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
@@ -1839,13 +1839,13 @@
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1853,9 +1853,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="14" t="s">
         <v>67</v>
       </c>
@@ -1867,13 +1867,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="27" t="s">
         <v>161</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1881,17 +1881,17 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1903,13 +1903,13 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="27" t="s">
         <v>162</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1917,17 +1917,17 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="3" t="s">
         <v>73</v>
       </c>
@@ -1939,13 +1939,13 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="27" t="s">
         <v>163</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1953,17 +1953,17 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="3" t="s">
         <v>164</v>
       </c>
@@ -1981,13 +1981,13 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="27" t="s">
         <v>165</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1995,57 +1995,57 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="3" t="s">
         <v>84</v>
       </c>
@@ -2057,13 +2057,13 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="27" t="s">
         <v>295</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2071,49 +2071,49 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="3" t="s">
         <v>90</v>
       </c>
@@ -2125,13 +2125,13 @@
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="27" t="s">
         <v>298</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2139,49 +2139,49 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="22"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="22"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="22"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="22"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="22"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="3" t="s">
         <v>97</v>
       </c>
@@ -2193,13 +2193,13 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="27" t="s">
         <v>301</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -2207,41 +2207,41 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="3" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="3" t="s">
         <v>288</v>
       </c>
@@ -2260,6 +2260,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A48:A53"/>
@@ -2276,16 +2286,6 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="A32:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2296,7 +2296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFE970-8A42-452A-BFF2-0389814BBBA4}">
   <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="83" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B11"/>
     </sheetView>
   </sheetViews>
@@ -2315,13 +2315,13 @@
       <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -2335,10 +2335,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2353,8 +2353,8 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="17" t="s">
         <v>119</v>
       </c>
@@ -2367,8 +2367,8 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="17" t="s">
         <v>120</v>
       </c>
@@ -2393,10 +2393,10 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>198</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2411,8 +2411,8 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="6" t="s">
         <v>59</v>
       </c>
@@ -2425,8 +2425,8 @@
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="6" t="s">
         <v>122</v>
       </c>
@@ -2439,8 +2439,8 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="17" t="s">
         <v>199</v>
       </c>
@@ -2453,8 +2453,8 @@
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="17" t="s">
         <v>200</v>
       </c>
@@ -2467,9 +2467,9 @@
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="28" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="21" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -2493,10 +2493,10 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="31" t="s">
         <v>210</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2511,8 +2511,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="17" t="s">
         <v>125</v>
       </c>
@@ -2525,8 +2525,8 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="17" t="s">
         <v>122</v>
       </c>
@@ -2539,8 +2539,8 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="17" t="s">
         <v>203</v>
       </c>
@@ -2553,8 +2553,8 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="17" t="s">
         <v>204</v>
       </c>
@@ -2567,8 +2567,8 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="17" t="s">
         <v>132</v>
       </c>
@@ -2593,10 +2593,10 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="31" t="s">
         <v>209</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -2611,8 +2611,8 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="17" t="s">
         <v>125</v>
       </c>
@@ -2625,8 +2625,8 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="17" t="s">
         <v>122</v>
       </c>
@@ -2641,8 +2641,8 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="17" t="s">
         <v>206</v>
       </c>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="17" t="s">
         <v>208</v>
       </c>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
-      <c r="B25" s="24"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="17" t="s">
         <v>132</v>
       </c>
@@ -2709,10 +2709,10 @@
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2729,8 +2729,8 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
         <v>59</v>
       </c>
@@ -2745,8 +2745,8 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="17" t="s">
         <v>60</v>
       </c>
@@ -2761,8 +2761,8 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="6" t="s">
         <v>62</v>
       </c>
@@ -2787,10 +2787,10 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2807,8 +2807,8 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="6" t="s">
         <v>59</v>
       </c>
@@ -2823,8 +2823,8 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="6" t="s">
         <v>60</v>
       </c>
@@ -2839,8 +2839,8 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="6" t="s">
         <v>64</v>
       </c>
@@ -2885,10 +2885,10 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -2905,8 +2905,8 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="6" t="s">
         <v>59</v>
       </c>
@@ -2921,8 +2921,8 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="6" t="s">
         <v>135</v>
       </c>
@@ -2937,8 +2937,8 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="6" t="s">
         <v>136</v>
       </c>
@@ -2953,8 +2953,8 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="6" t="s">
         <v>137</v>
       </c>
@@ -2979,10 +2979,10 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="31" t="s">
         <v>69</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -2999,8 +2999,8 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="6" t="s">
         <v>59</v>
       </c>
@@ -3015,8 +3015,8 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="6" t="s">
         <v>141</v>
       </c>
@@ -3031,8 +3031,8 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="6" t="s">
         <v>136</v>
       </c>
@@ -3047,8 +3047,8 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="6" t="s">
         <v>142</v>
       </c>
@@ -3073,10 +3073,10 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -3093,8 +3093,8 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="6" t="s">
         <v>59</v>
       </c>
@@ -3109,8 +3109,8 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="6" t="s">
         <v>141</v>
       </c>
@@ -3125,8 +3125,8 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="6" t="s">
         <v>144</v>
       </c>
@@ -3151,10 +3151,10 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -3171,8 +3171,8 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="6" t="s">
         <v>59</v>
       </c>
@@ -3187,8 +3187,8 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="6" t="s">
         <v>141</v>
       </c>
@@ -3203,8 +3203,8 @@
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="6" t="s">
         <v>146</v>
       </c>
@@ -3229,10 +3229,10 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -3249,8 +3249,8 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="6" t="s">
         <v>59</v>
       </c>
@@ -3265,8 +3265,8 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="6" t="s">
         <v>141</v>
       </c>
@@ -3281,8 +3281,8 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="6" t="s">
         <v>146</v>
       </c>
@@ -3307,10 +3307,10 @@
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -3327,8 +3327,8 @@
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="6" t="s">
         <v>59</v>
       </c>
@@ -3343,8 +3343,8 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="23"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="6" t="s">
         <v>141</v>
       </c>
@@ -3359,8 +3359,8 @@
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="23"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="6" t="s">
         <v>144</v>
       </c>
@@ -3385,10 +3385,10 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -3405,8 +3405,8 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="23"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="6" t="s">
         <v>59</v>
       </c>
@@ -3421,8 +3421,8 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="23"/>
-      <c r="B74" s="24"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="6" t="s">
         <v>141</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="6" t="s">
         <v>147</v>
       </c>
@@ -3463,10 +3463,10 @@
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -3483,8 +3483,8 @@
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="6" t="s">
         <v>59</v>
       </c>
@@ -3499,8 +3499,8 @@
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="6" t="s">
         <v>141</v>
       </c>
@@ -3515,8 +3515,8 @@
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="6" t="s">
         <v>147</v>
       </c>
@@ -3541,10 +3541,10 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -3561,8 +3561,8 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="6" t="s">
         <v>59</v>
       </c>
@@ -3577,8 +3577,8 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="23"/>
-      <c r="B84" s="24"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="6" t="s">
         <v>141</v>
       </c>
@@ -3593,8 +3593,8 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="6" t="s">
         <v>144</v>
       </c>
@@ -3609,10 +3609,10 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="27" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -3629,8 +3629,8 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="6" t="s">
         <v>166</v>
       </c>
@@ -3645,8 +3645,8 @@
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="6" t="s">
         <v>184</v>
       </c>
@@ -3661,8 +3661,8 @@
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="6" t="s">
         <v>167</v>
       </c>
@@ -3677,8 +3677,8 @@
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="6" t="s">
         <v>168</v>
       </c>
@@ -3693,8 +3693,8 @@
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="6" t="s">
         <v>169</v>
       </c>
@@ -3709,8 +3709,8 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="6" t="s">
         <v>176</v>
       </c>
@@ -3735,10 +3735,10 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -3755,8 +3755,8 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="6" t="s">
         <v>166</v>
       </c>
@@ -3771,8 +3771,8 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="6" t="s">
         <v>184</v>
       </c>
@@ -3787,8 +3787,8 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="6" t="s">
         <v>167</v>
       </c>
@@ -3803,8 +3803,8 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="6" t="s">
         <v>174</v>
       </c>
@@ -3819,8 +3819,8 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="6" t="s">
         <v>175</v>
       </c>
@@ -3835,8 +3835,8 @@
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
       <c r="C100" s="6" t="s">
         <v>177</v>
       </c>
@@ -3861,10 +3861,10 @@
       <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -3881,8 +3881,8 @@
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="6" t="s">
         <v>166</v>
       </c>
@@ -3897,8 +3897,8 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="6" t="s">
         <v>184</v>
       </c>
@@ -3913,8 +3913,8 @@
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="6" t="s">
         <v>167</v>
       </c>
@@ -3929,8 +3929,8 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="6" t="s">
         <v>180</v>
       </c>
@@ -3955,10 +3955,10 @@
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="27" t="s">
         <v>80</v>
       </c>
       <c r="C108" s="6" t="s">
@@ -3975,8 +3975,8 @@
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="6" t="s">
         <v>166</v>
       </c>
@@ -3991,8 +3991,8 @@
       <c r="H109" s="3"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
       <c r="C110" s="6" t="s">
         <v>184</v>
       </c>
@@ -4007,8 +4007,8 @@
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22"/>
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
       <c r="C111" s="6" t="s">
         <v>167</v>
       </c>
@@ -4023,8 +4023,8 @@
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="6" t="s">
         <v>185</v>
       </c>
@@ -4049,10 +4049,10 @@
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="27" t="s">
         <v>81</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -4069,8 +4069,8 @@
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="22"/>
-      <c r="B115" s="22"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
       <c r="C115" s="6" t="s">
         <v>166</v>
       </c>
@@ -4085,8 +4085,8 @@
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
       <c r="C116" s="6" t="s">
         <v>184</v>
       </c>
@@ -4101,8 +4101,8 @@
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="6" t="s">
         <v>187</v>
       </c>
@@ -4117,8 +4117,8 @@
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="6" t="s">
         <v>188</v>
       </c>
@@ -4133,8 +4133,8 @@
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="6" t="s">
         <v>189</v>
       </c>
@@ -4159,10 +4159,10 @@
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B121" s="27" t="s">
         <v>82</v>
       </c>
       <c r="C121" s="6" t="s">
@@ -4179,8 +4179,8 @@
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="22"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
       <c r="C122" s="6" t="s">
         <v>166</v>
       </c>
@@ -4195,8 +4195,8 @@
       <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="22"/>
-      <c r="B123" s="22"/>
+      <c r="A123" s="27"/>
+      <c r="B123" s="27"/>
       <c r="C123" s="6" t="s">
         <v>184</v>
       </c>
@@ -4211,8 +4211,8 @@
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="22"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="27"/>
+      <c r="B124" s="27"/>
       <c r="C124" s="6" t="s">
         <v>187</v>
       </c>
@@ -4227,8 +4227,8 @@
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="22"/>
-      <c r="B125" s="22"/>
+      <c r="A125" s="27"/>
+      <c r="B125" s="27"/>
       <c r="C125" s="6" t="s">
         <v>194</v>
       </c>
@@ -4253,10 +4253,10 @@
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="27" t="s">
         <v>83</v>
       </c>
       <c r="C127" s="6" t="s">
@@ -4273,8 +4273,8 @@
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="22"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="27"/>
       <c r="C128" s="6" t="s">
         <v>166</v>
       </c>
@@ -4289,8 +4289,8 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
+      <c r="A129" s="27"/>
+      <c r="B129" s="27"/>
       <c r="C129" s="6" t="s">
         <v>184</v>
       </c>
@@ -4305,8 +4305,8 @@
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
+      <c r="A130" s="27"/>
+      <c r="B130" s="27"/>
       <c r="C130" s="6" t="s">
         <v>187</v>
       </c>
@@ -4321,8 +4321,8 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
+      <c r="A131" s="27"/>
+      <c r="B131" s="27"/>
       <c r="C131" s="6" t="s">
         <v>211</v>
       </c>
@@ -4347,10 +4347,10 @@
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B133" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C133" s="6" t="s">
@@ -4367,8 +4367,8 @@
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="22"/>
-      <c r="B134" s="22"/>
+      <c r="A134" s="27"/>
+      <c r="B134" s="27"/>
       <c r="C134" s="6" t="s">
         <v>166</v>
       </c>
@@ -4383,8 +4383,8 @@
       <c r="H134" s="3"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="22"/>
-      <c r="B135" s="22"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="27"/>
       <c r="C135" s="6" t="s">
         <v>184</v>
       </c>
@@ -4399,8 +4399,8 @@
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="22"/>
-      <c r="B136" s="22"/>
+      <c r="A136" s="27"/>
+      <c r="B136" s="27"/>
       <c r="C136" s="6" t="s">
         <v>214</v>
       </c>
@@ -4425,10 +4425,10 @@
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="27" t="s">
         <v>293</v>
       </c>
       <c r="C138" s="6" t="s">
@@ -4445,8 +4445,8 @@
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="22"/>
-      <c r="B139" s="22"/>
+      <c r="A139" s="27"/>
+      <c r="B139" s="27"/>
       <c r="C139" s="6" t="s">
         <v>166</v>
       </c>
@@ -4461,8 +4461,8 @@
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="22"/>
-      <c r="B140" s="22"/>
+      <c r="A140" s="27"/>
+      <c r="B140" s="27"/>
       <c r="C140" s="6" t="s">
         <v>219</v>
       </c>
@@ -4477,8 +4477,8 @@
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
+      <c r="A141" s="27"/>
+      <c r="B141" s="27"/>
       <c r="C141" s="6" t="s">
         <v>167</v>
       </c>
@@ -4493,8 +4493,8 @@
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="22"/>
-      <c r="B142" s="22"/>
+      <c r="A142" s="27"/>
+      <c r="B142" s="27"/>
       <c r="C142" s="6" t="s">
         <v>220</v>
       </c>
@@ -4509,8 +4509,8 @@
       <c r="H142" s="3"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="22"/>
-      <c r="B143" s="22"/>
+      <c r="A143" s="27"/>
+      <c r="B143" s="27"/>
       <c r="C143" s="6" t="s">
         <v>226</v>
       </c>
@@ -4535,10 +4535,10 @@
       <c r="H144" s="3"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="22" t="s">
+      <c r="A145" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="27" t="s">
         <v>85</v>
       </c>
       <c r="C145" s="6" t="s">
@@ -4555,8 +4555,8 @@
       <c r="H145" s="3"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="22"/>
-      <c r="B146" s="22"/>
+      <c r="A146" s="27"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="6" t="s">
         <v>166</v>
       </c>
@@ -4571,8 +4571,8 @@
       <c r="H146" s="3"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="22"/>
-      <c r="B147" s="22"/>
+      <c r="A147" s="27"/>
+      <c r="B147" s="27"/>
       <c r="C147" s="6" t="s">
         <v>219</v>
       </c>
@@ -4587,8 +4587,8 @@
       <c r="H147" s="3"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="22"/>
-      <c r="B148" s="22"/>
+      <c r="A148" s="27"/>
+      <c r="B148" s="27"/>
       <c r="C148" s="6" t="s">
         <v>167</v>
       </c>
@@ -4603,8 +4603,8 @@
       <c r="H148" s="3"/>
     </row>
     <row r="149" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="22"/>
-      <c r="B149" s="22"/>
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
       <c r="C149" s="6" t="s">
         <v>227</v>
       </c>
@@ -4619,8 +4619,8 @@
       <c r="H149" s="3"/>
     </row>
     <row r="150" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="22"/>
-      <c r="B150" s="22"/>
+      <c r="A150" s="27"/>
+      <c r="B150" s="27"/>
       <c r="C150" s="6" t="s">
         <v>226</v>
       </c>
@@ -4645,10 +4645,10 @@
       <c r="H151" s="3"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152" s="22" t="s">
+      <c r="A152" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C152" s="6" t="s">
@@ -4665,8 +4665,8 @@
       <c r="H152" s="3"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="22"/>
-      <c r="B153" s="22"/>
+      <c r="A153" s="27"/>
+      <c r="B153" s="27"/>
       <c r="C153" s="6" t="s">
         <v>229</v>
       </c>
@@ -4681,8 +4681,8 @@
       <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="22"/>
-      <c r="B154" s="22"/>
+      <c r="A154" s="27"/>
+      <c r="B154" s="27"/>
       <c r="C154" s="6" t="s">
         <v>231</v>
       </c>
@@ -4697,8 +4697,8 @@
       <c r="H154" s="3"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="22"/>
-      <c r="B155" s="22"/>
+      <c r="A155" s="27"/>
+      <c r="B155" s="27"/>
       <c r="C155" s="6" t="s">
         <v>167</v>
       </c>
@@ -4713,8 +4713,8 @@
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="22"/>
-      <c r="B156" s="22"/>
+      <c r="A156" s="27"/>
+      <c r="B156" s="27"/>
       <c r="C156" s="6" t="s">
         <v>180</v>
       </c>
@@ -4739,10 +4739,10 @@
       <c r="H157" s="3"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="22" t="s">
+      <c r="A158" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="27" t="s">
         <v>87</v>
       </c>
       <c r="C158" s="6" t="s">
@@ -4759,8 +4759,8 @@
       <c r="H158" s="3"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="22"/>
-      <c r="B159" s="22"/>
+      <c r="A159" s="27"/>
+      <c r="B159" s="27"/>
       <c r="C159" s="6" t="s">
         <v>229</v>
       </c>
@@ -4775,8 +4775,8 @@
       <c r="H159" s="3"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
+      <c r="A160" s="27"/>
+      <c r="B160" s="27"/>
       <c r="C160" s="6" t="s">
         <v>219</v>
       </c>
@@ -4791,8 +4791,8 @@
       <c r="H160" s="3"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="22"/>
-      <c r="B161" s="22"/>
+      <c r="A161" s="27"/>
+      <c r="B161" s="27"/>
       <c r="C161" s="6" t="s">
         <v>167</v>
       </c>
@@ -4807,8 +4807,8 @@
       <c r="H161" s="3"/>
     </row>
     <row r="162" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="22"/>
-      <c r="B162" s="22"/>
+      <c r="A162" s="27"/>
+      <c r="B162" s="27"/>
       <c r="C162" s="6" t="s">
         <v>236</v>
       </c>
@@ -4833,10 +4833,10 @@
       <c r="H163" s="3"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="22" t="s">
+      <c r="A164" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B164" s="22" t="s">
+      <c r="B164" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C164" s="6" t="s">
@@ -4853,8 +4853,8 @@
       <c r="H164" s="3"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="22"/>
-      <c r="B165" s="22"/>
+      <c r="A165" s="27"/>
+      <c r="B165" s="27"/>
       <c r="C165" s="6" t="s">
         <v>229</v>
       </c>
@@ -4869,8 +4869,8 @@
       <c r="H165" s="3"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="22"/>
-      <c r="B166" s="22"/>
+      <c r="A166" s="27"/>
+      <c r="B166" s="27"/>
       <c r="C166" s="6" t="s">
         <v>219</v>
       </c>
@@ -4885,8 +4885,8 @@
       <c r="H166" s="3"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="22"/>
-      <c r="B167" s="22"/>
+      <c r="A167" s="27"/>
+      <c r="B167" s="27"/>
       <c r="C167" s="6" t="s">
         <v>238</v>
       </c>
@@ -4901,8 +4901,8 @@
       <c r="H167" s="3"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="22"/>
-      <c r="B168" s="22"/>
+      <c r="A168" s="27"/>
+      <c r="B168" s="27"/>
       <c r="C168" s="6" t="s">
         <v>239</v>
       </c>
@@ -4917,8 +4917,8 @@
       <c r="H168" s="3"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="22"/>
-      <c r="B169" s="22"/>
+      <c r="A169" s="27"/>
+      <c r="B169" s="27"/>
       <c r="C169" s="6" t="s">
         <v>240</v>
       </c>
@@ -4943,10 +4943,10 @@
       <c r="H170" s="3"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="22" t="s">
+      <c r="A171" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B171" s="22" t="s">
+      <c r="B171" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C171" s="6" t="s">
@@ -4963,8 +4963,8 @@
       <c r="H171" s="3"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="22"/>
-      <c r="B172" s="22"/>
+      <c r="A172" s="27"/>
+      <c r="B172" s="27"/>
       <c r="C172" s="6" t="s">
         <v>229</v>
       </c>
@@ -4979,8 +4979,8 @@
       <c r="H172" s="3"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="22"/>
-      <c r="B173" s="22"/>
+      <c r="A173" s="27"/>
+      <c r="B173" s="27"/>
       <c r="C173" s="6" t="s">
         <v>219</v>
       </c>
@@ -4995,8 +4995,8 @@
       <c r="H173" s="3"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="22"/>
-      <c r="B174" s="22"/>
+      <c r="A174" s="27"/>
+      <c r="B174" s="27"/>
       <c r="C174" s="6" t="s">
         <v>238</v>
       </c>
@@ -5011,8 +5011,8 @@
       <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="22"/>
-      <c r="B175" s="22"/>
+      <c r="A175" s="27"/>
+      <c r="B175" s="27"/>
       <c r="C175" s="6" t="s">
         <v>180</v>
       </c>
@@ -5037,10 +5037,10 @@
       <c r="H176" s="3"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="22" t="s">
+      <c r="A177" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B177" s="22" t="s">
+      <c r="B177" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C177" s="6" t="s">
@@ -5057,8 +5057,8 @@
       <c r="H177" s="3"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="22"/>
-      <c r="B178" s="22"/>
+      <c r="A178" s="27"/>
+      <c r="B178" s="27"/>
       <c r="C178" s="6" t="s">
         <v>229</v>
       </c>
@@ -5073,8 +5073,8 @@
       <c r="H178" s="3"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="22"/>
-      <c r="B179" s="22"/>
+      <c r="A179" s="27"/>
+      <c r="B179" s="27"/>
       <c r="C179" s="6" t="s">
         <v>219</v>
       </c>
@@ -5089,8 +5089,8 @@
       <c r="H179" s="3"/>
     </row>
     <row r="180" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="22"/>
-      <c r="B180" s="22"/>
+      <c r="A180" s="27"/>
+      <c r="B180" s="27"/>
       <c r="C180" s="6" t="s">
         <v>269</v>
       </c>
@@ -5115,10 +5115,10 @@
       <c r="H181" s="3"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="22" t="s">
+      <c r="A182" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="27" t="s">
         <v>91</v>
       </c>
       <c r="C182" s="3"/>
@@ -5129,8 +5129,8 @@
       <c r="H182" s="3"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="22"/>
-      <c r="B183" s="22"/>
+      <c r="A183" s="27"/>
+      <c r="B183" s="27"/>
       <c r="C183" s="6" t="s">
         <v>57</v>
       </c>
@@ -5145,8 +5145,8 @@
       <c r="H183" s="3"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="22"/>
-      <c r="B184" s="22"/>
+      <c r="A184" s="27"/>
+      <c r="B184" s="27"/>
       <c r="C184" s="6" t="s">
         <v>166</v>
       </c>
@@ -5161,8 +5161,8 @@
       <c r="H184" s="3"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="22"/>
-      <c r="B185" s="22"/>
+      <c r="A185" s="27"/>
+      <c r="B185" s="27"/>
       <c r="C185" s="6" t="s">
         <v>251</v>
       </c>
@@ -5177,8 +5177,8 @@
       <c r="H185" s="3"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="22"/>
-      <c r="B186" s="22"/>
+      <c r="A186" s="27"/>
+      <c r="B186" s="27"/>
       <c r="C186" s="6" t="s">
         <v>167</v>
       </c>
@@ -5193,8 +5193,8 @@
       <c r="H186" s="3"/>
     </row>
     <row r="187" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="22"/>
-      <c r="B187" s="22"/>
+      <c r="A187" s="27"/>
+      <c r="B187" s="27"/>
       <c r="C187" s="6" t="s">
         <v>252</v>
       </c>
@@ -5209,8 +5209,8 @@
       <c r="H187" s="3"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="22"/>
-      <c r="B188" s="22"/>
+      <c r="A188" s="27"/>
+      <c r="B188" s="27"/>
       <c r="C188" s="6" t="s">
         <v>226</v>
       </c>
@@ -5235,10 +5235,10 @@
       <c r="H189" s="3"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="22" t="s">
+      <c r="A190" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="27" t="s">
         <v>92</v>
       </c>
       <c r="C190" s="6" t="s">
@@ -5255,8 +5255,8 @@
       <c r="H190" s="3"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="22"/>
-      <c r="B191" s="22"/>
+      <c r="A191" s="27"/>
+      <c r="B191" s="27"/>
       <c r="C191" s="6" t="s">
         <v>166</v>
       </c>
@@ -5271,8 +5271,8 @@
       <c r="H191" s="3"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="22"/>
-      <c r="B192" s="22"/>
+      <c r="A192" s="27"/>
+      <c r="B192" s="27"/>
       <c r="C192" s="6" t="s">
         <v>251</v>
       </c>
@@ -5287,8 +5287,8 @@
       <c r="H192" s="3"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="22"/>
-      <c r="B193" s="22"/>
+      <c r="A193" s="27"/>
+      <c r="B193" s="27"/>
       <c r="C193" s="6" t="s">
         <v>167</v>
       </c>
@@ -5303,8 +5303,8 @@
       <c r="H193" s="3"/>
     </row>
     <row r="194" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="22"/>
-      <c r="B194" s="22"/>
+      <c r="A194" s="27"/>
+      <c r="B194" s="27"/>
       <c r="C194" s="6" t="s">
         <v>257</v>
       </c>
@@ -5319,8 +5319,8 @@
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="22"/>
-      <c r="B195" s="22"/>
+      <c r="A195" s="27"/>
+      <c r="B195" s="27"/>
       <c r="C195" s="6" t="s">
         <v>226</v>
       </c>
@@ -5345,10 +5345,10 @@
       <c r="H196" s="3"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="22" t="s">
+      <c r="A197" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B197" s="22" t="s">
+      <c r="B197" s="27" t="s">
         <v>93</v>
       </c>
       <c r="C197" s="6" t="s">
@@ -5365,8 +5365,8 @@
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="22"/>
-      <c r="B198" s="22"/>
+      <c r="A198" s="27"/>
+      <c r="B198" s="27"/>
       <c r="C198" s="6" t="s">
         <v>229</v>
       </c>
@@ -5381,8 +5381,8 @@
       <c r="H198" s="3"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="22"/>
-      <c r="B199" s="22"/>
+      <c r="A199" s="27"/>
+      <c r="B199" s="27"/>
       <c r="C199" s="6" t="s">
         <v>259</v>
       </c>
@@ -5397,8 +5397,8 @@
       <c r="H199" s="3"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="22"/>
-      <c r="B200" s="22"/>
+      <c r="A200" s="27"/>
+      <c r="B200" s="27"/>
       <c r="C200" s="6" t="s">
         <v>167</v>
       </c>
@@ -5413,8 +5413,8 @@
       <c r="H200" s="3"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="22"/>
-      <c r="B201" s="22"/>
+      <c r="A201" s="27"/>
+      <c r="B201" s="27"/>
       <c r="C201" s="6" t="s">
         <v>180</v>
       </c>
@@ -5429,8 +5429,8 @@
       <c r="H201" s="3"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="22"/>
-      <c r="B202" s="22"/>
+      <c r="A202" s="27"/>
+      <c r="B202" s="27"/>
       <c r="C202" s="6"/>
       <c r="D202" s="7"/>
       <c r="E202" s="3"/>
@@ -5449,10 +5449,10 @@
       <c r="H203" s="3"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="22" t="s">
+      <c r="A204" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B204" s="22" t="s">
+      <c r="B204" s="27" t="s">
         <v>94</v>
       </c>
       <c r="C204" s="6" t="s">
@@ -5469,8 +5469,8 @@
       <c r="H204" s="3"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="22"/>
-      <c r="B205" s="22"/>
+      <c r="A205" s="27"/>
+      <c r="B205" s="27"/>
       <c r="C205" s="6" t="s">
         <v>229</v>
       </c>
@@ -5485,8 +5485,8 @@
       <c r="H205" s="3"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="22"/>
-      <c r="B206" s="22"/>
+      <c r="A206" s="27"/>
+      <c r="B206" s="27"/>
       <c r="C206" s="6" t="s">
         <v>251</v>
       </c>
@@ -5501,8 +5501,8 @@
       <c r="H206" s="3"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="22"/>
-      <c r="B207" s="22"/>
+      <c r="A207" s="27"/>
+      <c r="B207" s="27"/>
       <c r="C207" s="6" t="s">
         <v>167</v>
       </c>
@@ -5517,8 +5517,8 @@
       <c r="H207" s="3"/>
     </row>
     <row r="208" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A208" s="22"/>
-      <c r="B208" s="22"/>
+      <c r="A208" s="27"/>
+      <c r="B208" s="27"/>
       <c r="C208" s="6" t="s">
         <v>261</v>
       </c>
@@ -5543,10 +5543,10 @@
       <c r="H209" s="3"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="22" t="s">
+      <c r="A210" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B210" s="22" t="s">
+      <c r="B210" s="27" t="s">
         <v>95</v>
       </c>
       <c r="C210" s="6" t="s">
@@ -5563,8 +5563,8 @@
       <c r="H210" s="3"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="22"/>
-      <c r="B211" s="22"/>
+      <c r="A211" s="27"/>
+      <c r="B211" s="27"/>
       <c r="C211" s="6" t="s">
         <v>229</v>
       </c>
@@ -5579,8 +5579,8 @@
       <c r="H211" s="3"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="22"/>
-      <c r="B212" s="22"/>
+      <c r="A212" s="27"/>
+      <c r="B212" s="27"/>
       <c r="C212" s="6" t="s">
         <v>262</v>
       </c>
@@ -5595,8 +5595,8 @@
       <c r="H212" s="3"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="22"/>
-      <c r="B213" s="22"/>
+      <c r="A213" s="27"/>
+      <c r="B213" s="27"/>
       <c r="C213" s="6" t="s">
         <v>238</v>
       </c>
@@ -5611,8 +5611,8 @@
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214" s="22"/>
-      <c r="B214" s="22"/>
+      <c r="A214" s="27"/>
+      <c r="B214" s="27"/>
       <c r="C214" s="6" t="s">
         <v>263</v>
       </c>
@@ -5627,8 +5627,8 @@
       <c r="H214" s="3"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="22"/>
-      <c r="B215" s="22"/>
+      <c r="A215" s="27"/>
+      <c r="B215" s="27"/>
       <c r="C215" s="6" t="s">
         <v>240</v>
       </c>
@@ -5653,10 +5653,10 @@
       <c r="H216" s="3"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="22" t="s">
+      <c r="A217" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B217" s="22" t="s">
+      <c r="B217" s="27" t="s">
         <v>96</v>
       </c>
       <c r="C217" s="6" t="s">
@@ -5673,8 +5673,8 @@
       <c r="H217" s="3"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="22"/>
-      <c r="B218" s="22"/>
+      <c r="A218" s="27"/>
+      <c r="B218" s="27"/>
       <c r="C218" s="6" t="s">
         <v>229</v>
       </c>
@@ -5689,8 +5689,8 @@
       <c r="H218" s="3"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="22"/>
-      <c r="B219" s="22"/>
+      <c r="A219" s="27"/>
+      <c r="B219" s="27"/>
       <c r="C219" s="6" t="s">
         <v>262</v>
       </c>
@@ -5705,8 +5705,8 @@
       <c r="H219" s="3"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="22"/>
-      <c r="B220" s="22"/>
+      <c r="A220" s="27"/>
+      <c r="B220" s="27"/>
       <c r="C220" s="6" t="s">
         <v>238</v>
       </c>
@@ -5721,8 +5721,8 @@
       <c r="H220" s="3"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A221" s="22"/>
-      <c r="B221" s="22"/>
+      <c r="A221" s="27"/>
+      <c r="B221" s="27"/>
       <c r="C221" s="6" t="s">
         <v>180</v>
       </c>
@@ -5737,8 +5737,8 @@
       <c r="H221" s="3"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222" s="22"/>
-      <c r="B222" s="22"/>
+      <c r="A222" s="27"/>
+      <c r="B222" s="27"/>
       <c r="C222" s="6"/>
       <c r="D222" s="7"/>
       <c r="E222" s="3"/>
@@ -5757,10 +5757,10 @@
       <c r="H223" s="3"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" s="22" t="s">
+      <c r="A224" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B224" s="22" t="s">
+      <c r="B224" s="27" t="s">
         <v>97</v>
       </c>
       <c r="C224" s="6" t="s">
@@ -5777,8 +5777,8 @@
       <c r="H224" s="3"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A225" s="22"/>
-      <c r="B225" s="22"/>
+      <c r="A225" s="27"/>
+      <c r="B225" s="27"/>
       <c r="C225" s="6" t="s">
         <v>229</v>
       </c>
@@ -5793,8 +5793,8 @@
       <c r="H225" s="3"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226" s="22"/>
-      <c r="B226" s="22"/>
+      <c r="A226" s="27"/>
+      <c r="B226" s="27"/>
       <c r="C226" s="6" t="s">
         <v>262</v>
       </c>
@@ -5809,8 +5809,8 @@
       <c r="H226" s="3"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A227" s="22"/>
-      <c r="B227" s="22"/>
+      <c r="A227" s="27"/>
+      <c r="B227" s="27"/>
       <c r="C227" s="6" t="s">
         <v>271</v>
       </c>
@@ -5835,10 +5835,10 @@
       <c r="H228" s="3"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A229" s="22" t="s">
+      <c r="A229" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B229" s="22" t="s">
+      <c r="B229" s="27" t="s">
         <v>98</v>
       </c>
       <c r="C229" s="6" t="s">
@@ -5855,8 +5855,8 @@
       <c r="H229" s="3"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230" s="22"/>
-      <c r="B230" s="22"/>
+      <c r="A230" s="27"/>
+      <c r="B230" s="27"/>
       <c r="C230" s="6" t="s">
         <v>229</v>
       </c>
@@ -5871,8 +5871,8 @@
       <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A231" s="22"/>
-      <c r="B231" s="22"/>
+      <c r="A231" s="27"/>
+      <c r="B231" s="27"/>
       <c r="C231" s="6" t="s">
         <v>273</v>
       </c>
@@ -5887,8 +5887,8 @@
       <c r="H231" s="3"/>
     </row>
     <row r="232" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="22"/>
-      <c r="B232" s="22"/>
+      <c r="A232" s="27"/>
+      <c r="B232" s="27"/>
       <c r="C232" s="6" t="s">
         <v>275</v>
       </c>
@@ -5903,8 +5903,8 @@
       <c r="H232" s="3"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A233" s="22"/>
-      <c r="B233" s="22"/>
+      <c r="A233" s="27"/>
+      <c r="B233" s="27"/>
       <c r="C233" s="6" t="s">
         <v>277</v>
       </c>
@@ -5929,10 +5929,10 @@
       <c r="H234" s="3"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A235" s="22" t="s">
+      <c r="A235" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B235" s="22" t="s">
+      <c r="B235" s="27" t="s">
         <v>99</v>
       </c>
       <c r="C235" s="6" t="s">
@@ -5949,8 +5949,8 @@
       <c r="H235" s="3"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A236" s="22"/>
-      <c r="B236" s="22"/>
+      <c r="A236" s="27"/>
+      <c r="B236" s="27"/>
       <c r="C236" s="6" t="s">
         <v>229</v>
       </c>
@@ -5965,8 +5965,8 @@
       <c r="H236" s="3"/>
     </row>
     <row r="237" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A237" s="22"/>
-      <c r="B237" s="22"/>
+      <c r="A237" s="27"/>
+      <c r="B237" s="27"/>
       <c r="C237" s="6" t="s">
         <v>273</v>
       </c>
@@ -5981,8 +5981,8 @@
       <c r="H237" s="3"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A238" s="22"/>
-      <c r="B238" s="22"/>
+      <c r="A238" s="27"/>
+      <c r="B238" s="27"/>
       <c r="C238" s="7"/>
       <c r="D238" s="3"/>
       <c r="E238" s="19"/>
@@ -6007,10 +6007,10 @@
       <c r="H239" s="3"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A240" s="22" t="s">
+      <c r="A240" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B240" s="22" t="s">
+      <c r="B240" s="27" t="s">
         <v>100</v>
       </c>
       <c r="C240" s="6" t="s">
@@ -6027,8 +6027,8 @@
       <c r="H240" s="3"/>
     </row>
     <row r="241" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A241" s="22"/>
-      <c r="B241" s="22"/>
+      <c r="A241" s="27"/>
+      <c r="B241" s="27"/>
       <c r="C241" s="6" t="s">
         <v>273</v>
       </c>
@@ -6043,8 +6043,8 @@
       <c r="H241" s="3"/>
     </row>
     <row r="242" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A242" s="22"/>
-      <c r="B242" s="22"/>
+      <c r="A242" s="27"/>
+      <c r="B242" s="27"/>
       <c r="C242" s="6" t="s">
         <v>279</v>
       </c>
@@ -6069,10 +6069,10 @@
       <c r="H243" s="3"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A244" s="22" t="s">
+      <c r="A244" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B244" s="22" t="s">
+      <c r="B244" s="27" t="s">
         <v>283</v>
       </c>
       <c r="C244" s="6" t="s">
@@ -6089,8 +6089,8 @@
       <c r="H244" s="3"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A245" s="22"/>
-      <c r="B245" s="22"/>
+      <c r="A245" s="27"/>
+      <c r="B245" s="27"/>
       <c r="C245" s="6" t="s">
         <v>229</v>
       </c>
@@ -6105,8 +6105,8 @@
       <c r="H245" s="3"/>
     </row>
     <row r="246" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A246" s="22"/>
-      <c r="B246" s="22"/>
+      <c r="A246" s="27"/>
+      <c r="B246" s="27"/>
       <c r="C246" s="6" t="s">
         <v>273</v>
       </c>
@@ -6121,8 +6121,8 @@
       <c r="H246" s="3"/>
     </row>
     <row r="247" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A247" s="22"/>
-      <c r="B247" s="22"/>
+      <c r="A247" s="27"/>
+      <c r="B247" s="27"/>
       <c r="C247" s="6" t="s">
         <v>281</v>
       </c>
@@ -6137,8 +6137,8 @@
       <c r="H247" s="3"/>
     </row>
     <row r="248" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="22"/>
-      <c r="B248" s="22"/>
+      <c r="A248" s="27"/>
+      <c r="B248" s="27"/>
       <c r="C248" s="6" t="s">
         <v>277</v>
       </c>
@@ -6163,10 +6163,10 @@
       <c r="H249" s="3"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A250" s="22" t="s">
+      <c r="A250" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B250" s="22" t="s">
+      <c r="B250" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C250" s="6" t="s">
@@ -6183,8 +6183,8 @@
       <c r="H250" s="3"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A251" s="22"/>
-      <c r="B251" s="22"/>
+      <c r="A251" s="27"/>
+      <c r="B251" s="27"/>
       <c r="C251" s="6" t="s">
         <v>229</v>
       </c>
@@ -6199,8 +6199,8 @@
       <c r="H251" s="3"/>
     </row>
     <row r="252" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A252" s="22"/>
-      <c r="B252" s="22"/>
+      <c r="A252" s="27"/>
+      <c r="B252" s="27"/>
       <c r="C252" s="6" t="s">
         <v>273</v>
       </c>
@@ -6215,8 +6215,8 @@
       <c r="H252" s="3"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A253" s="22"/>
-      <c r="B253" s="22"/>
+      <c r="A253" s="27"/>
+      <c r="B253" s="27"/>
       <c r="C253" s="6" t="s">
         <v>285</v>
       </c>
@@ -6231,8 +6231,8 @@
       <c r="H253" s="3"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A254" s="22"/>
-      <c r="B254" s="22"/>
+      <c r="A254" s="27"/>
+      <c r="B254" s="27"/>
       <c r="C254" s="6" t="s">
         <v>277</v>
       </c>
@@ -6257,10 +6257,10 @@
       <c r="H255" s="3"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A256" s="22" t="s">
+      <c r="A256" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B256" s="22" t="s">
+      <c r="B256" s="27" t="s">
         <v>288</v>
       </c>
       <c r="C256" s="6" t="s">
@@ -6277,8 +6277,8 @@
       <c r="H256" s="3"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A257" s="22"/>
-      <c r="B257" s="22"/>
+      <c r="A257" s="27"/>
+      <c r="B257" s="27"/>
       <c r="C257" s="6" t="s">
         <v>229</v>
       </c>
@@ -6293,8 +6293,8 @@
       <c r="H257" s="3"/>
     </row>
     <row r="258" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A258" s="22"/>
-      <c r="B258" s="22"/>
+      <c r="A258" s="27"/>
+      <c r="B258" s="27"/>
       <c r="C258" s="6" t="s">
         <v>273</v>
       </c>
@@ -6309,8 +6309,8 @@
       <c r="H258" s="3"/>
     </row>
     <row r="259" spans="1:8" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A259" s="22"/>
-      <c r="B259" s="22"/>
+      <c r="A259" s="27"/>
+      <c r="B259" s="27"/>
       <c r="C259" s="6" t="s">
         <v>289</v>
       </c>
@@ -6325,8 +6325,8 @@
       <c r="H259" s="3"/>
     </row>
     <row r="260" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="22"/>
-      <c r="B260" s="22"/>
+      <c r="A260" s="27"/>
+      <c r="B260" s="27"/>
       <c r="C260" s="6" t="s">
         <v>277</v>
       </c>
@@ -6382,78 +6382,6 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="B94:B100"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="A138:A143"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="B164:B169"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="B171:B175"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B210:B215"/>
-    <mergeCell ref="A210:A215"/>
-    <mergeCell ref="B217:B222"/>
-    <mergeCell ref="A217:A222"/>
-    <mergeCell ref="B182:B188"/>
-    <mergeCell ref="A182:A188"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="A190:A195"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="A197:A202"/>
     <mergeCell ref="A256:A260"/>
     <mergeCell ref="B256:B260"/>
     <mergeCell ref="B224:B227"/>
@@ -6468,6 +6396,78 @@
     <mergeCell ref="A244:A248"/>
     <mergeCell ref="B250:B254"/>
     <mergeCell ref="A250:A254"/>
+    <mergeCell ref="B182:B188"/>
+    <mergeCell ref="A182:A188"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="A190:A195"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B210:B215"/>
+    <mergeCell ref="A210:A215"/>
+    <mergeCell ref="B217:B222"/>
+    <mergeCell ref="A217:A222"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="B171:B175"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="B94:B100"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A13:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
